--- a/gropin/schema/metadataschema39.xlsx
+++ b/gropin/schema/metadataschema39.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Brochothrix thermosphacta in/on Tryptic Soy Broth (gropin ID: 39 )</t>
+          <t>Gropin secondary growth model for Brochothrix thermosphacta in/on Tryptic Soy Broth (gropin ID: 39 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(2.002,19.98001998002,length.out=21)</t>
+          <t>seq(2.002,19.98001998002,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(4.004,7.49250749250749,length.out=21)</t>
+          <t>seq(4.004,7.49250749250749,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0.95095,0.994005994005994,length.out=21)</t>
+          <t>seq(0.95095,0.994005994005994,length.out=10)</t>
         </is>
       </c>
     </row>
